--- a/input/emf/dsp.3/data.input.xlsx
+++ b/input/emf/dsp.3/data.input.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAAEAEF-08C7-414D-8657-75E7CA4845FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="concentrations" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -190,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,7 +497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -671,16 +666,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -723,11 +718,8 @@
       <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -770,11 +762,8 @@
       <c r="N2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -817,9 +806,6 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -827,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -872,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -969,10 +955,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
